--- a/data/constInputs.xlsx
+++ b/data/constInputs.xlsx
@@ -1870,25 +1870,25 @@
         <v>1975</v>
       </c>
       <c r="B2">
-        <v>3.407387742433586</v>
+        <v>2.615115680856229</v>
       </c>
       <c r="C2">
-        <v>2.768310857029864</v>
+        <v>2.142474866714471</v>
       </c>
       <c r="D2">
-        <v>2.370117042197738</v>
+        <v>1.843628581617115</v>
       </c>
       <c r="E2">
-        <v>2.654796447605625</v>
+        <v>2.05761785594506</v>
       </c>
       <c r="F2">
-        <v>2.370489018913808</v>
+        <v>1.843909282730807</v>
       </c>
       <c r="G2">
-        <v>2.557122865591045</v>
+        <v>1.984387295075789</v>
       </c>
       <c r="I2">
-        <v>2.613118637665079</v>
+        <v>2.026394291808017</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1896,25 +1896,25 @@
         <v>1976</v>
       </c>
       <c r="B3">
-        <v>3.169344516803311</v>
+        <v>2.440566854188297</v>
       </c>
       <c r="C3">
-        <v>2.810138728799612</v>
+        <v>2.17404655010173</v>
       </c>
       <c r="D3">
-        <v>2.268813439508596</v>
+        <v>1.767314416509357</v>
       </c>
       <c r="E3">
-        <v>2.588609216098801</v>
+        <v>2.008328429137332</v>
       </c>
       <c r="F3">
-        <v>2.808598163335256</v>
+        <v>2.172897641727537</v>
       </c>
       <c r="G3">
-        <v>2.804393162961655</v>
+        <v>2.169761423432589</v>
       </c>
       <c r="I3">
-        <v>2.41130976598252</v>
+        <v>1.874965541674565</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1922,25 +1922,25 @@
         <v>1977</v>
       </c>
       <c r="B4">
-        <v>3.020976528279972</v>
+        <v>2.324413421977283</v>
       </c>
       <c r="C4">
-        <v>2.916107420959415</v>
+        <v>2.247017273068703</v>
       </c>
       <c r="D4">
-        <v>2.250346237186826</v>
+        <v>1.749890386978924</v>
       </c>
       <c r="E4">
-        <v>2.588729211144452</v>
+        <v>2.003799658063145</v>
       </c>
       <c r="F4">
-        <v>2.775739712096704</v>
+        <v>2.143030672168436</v>
       </c>
       <c r="G4">
-        <v>2.756420461968502</v>
+        <v>2.128683752643701</v>
       </c>
       <c r="I4">
-        <v>2.28957142933113</v>
+        <v>1.779452880125735</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1948,25 +1948,25 @@
         <v>1978</v>
       </c>
       <c r="B5">
-        <v>3.048387922699014</v>
+        <v>2.345084708702178</v>
       </c>
       <c r="C5">
-        <v>2.638384063772726</v>
+        <v>2.041200057955594</v>
       </c>
       <c r="D5">
-        <v>2.108672295957827</v>
+        <v>1.643058250541622</v>
       </c>
       <c r="E5">
-        <v>2.378191851782676</v>
+        <v>1.84640378693809</v>
       </c>
       <c r="F5">
-        <v>2.691558436424033</v>
+        <v>2.080824843864742</v>
       </c>
       <c r="G5">
-        <v>2.444642012509764</v>
+        <v>1.896294731604753</v>
       </c>
       <c r="I5">
-        <v>2.064458484182128</v>
+        <v>1.609549622668578</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1974,25 +1974,25 @@
         <v>1979</v>
       </c>
       <c r="B6">
-        <v>3.430270077081355</v>
+        <v>2.628189519156816</v>
       </c>
       <c r="C6">
-        <v>2.451926408169881</v>
+        <v>1.903482235547875</v>
       </c>
       <c r="D6">
-        <v>2.07751832920322</v>
+        <v>1.620670501288292</v>
       </c>
       <c r="E6">
-        <v>2.236383248708225</v>
+        <v>1.74103164969294</v>
       </c>
       <c r="F6">
-        <v>2.512357666060532</v>
+        <v>1.948850549456491</v>
       </c>
       <c r="G6">
-        <v>2.327094654053699</v>
+        <v>1.809519132531006</v>
       </c>
       <c r="I6">
-        <v>2.069384400318522</v>
+        <v>1.614493745672934</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2000,25 +2000,25 @@
         <v>1980</v>
       </c>
       <c r="B7">
-        <v>4.409916808171169</v>
+        <v>3.307766018852549</v>
       </c>
       <c r="C7">
-        <v>2.251209319054468</v>
+        <v>1.746387863908279</v>
       </c>
       <c r="D7">
-        <v>2.067924771962517</v>
+        <v>1.608488599231817</v>
       </c>
       <c r="E7">
-        <v>2.103013322043785</v>
+        <v>1.634950048754378</v>
       </c>
       <c r="F7">
-        <v>2.31813609182483</v>
+        <v>1.796542821722763</v>
       </c>
       <c r="G7">
-        <v>2.168515105313713</v>
+        <v>1.684269226112793</v>
       </c>
       <c r="I7">
-        <v>2.127762385546233</v>
+        <v>1.6535966499168</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2026,25 +2026,25 @@
         <v>1981</v>
       </c>
       <c r="B8">
-        <v>4.748798996958862</v>
+        <v>3.504376168954986</v>
       </c>
       <c r="C8">
-        <v>2.286360481399784</v>
+        <v>1.76494205326383</v>
       </c>
       <c r="D8">
-        <v>2.442168674167741</v>
+        <v>1.880241924250963</v>
       </c>
       <c r="E8">
-        <v>2.061849784352256</v>
+        <v>1.597627693195506</v>
       </c>
       <c r="F8">
-        <v>2.283210726665397</v>
+        <v>1.762604279646331</v>
       </c>
       <c r="G8">
-        <v>2.010856452354769</v>
+        <v>1.559434229482222</v>
       </c>
       <c r="I8">
-        <v>2.583387949784599</v>
+        <v>1.984162194676798</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2052,25 +2052,25 @@
         <v>1982</v>
       </c>
       <c r="B9">
-        <v>4.336017377847917</v>
+        <v>3.192884365410738</v>
       </c>
       <c r="C9">
-        <v>2.227285284792878</v>
+        <v>1.713249763459299</v>
       </c>
       <c r="D9">
-        <v>2.793921746321725</v>
+        <v>2.125408739302725</v>
       </c>
       <c r="E9">
-        <v>2.073095324756955</v>
+        <v>1.599337973994456</v>
       </c>
       <c r="F9">
-        <v>2.317773704067109</v>
+        <v>1.779754484013036</v>
       </c>
       <c r="G9">
-        <v>2.022799255673644</v>
+        <v>1.562020983960601</v>
       </c>
       <c r="I9">
-        <v>2.409674347169523</v>
+        <v>1.847033001223316</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2078,25 +2078,25 @@
         <v>1983</v>
       </c>
       <c r="B10">
-        <v>3.838125511065285</v>
+        <v>2.894333866188315</v>
       </c>
       <c r="C10">
-        <v>2.332478296074818</v>
+        <v>1.803294269582736</v>
       </c>
       <c r="D10">
-        <v>2.503075489215648</v>
+        <v>1.929954438354647</v>
       </c>
       <c r="E10">
-        <v>2.12531250957578</v>
+        <v>1.648476588783437</v>
       </c>
       <c r="F10">
-        <v>2.133819238081768</v>
+        <v>1.654855346747412</v>
       </c>
       <c r="G10">
-        <v>1.886025558695241</v>
+        <v>1.468298418950434</v>
       </c>
       <c r="I10">
-        <v>2.541777221221756</v>
+        <v>1.958583405636581</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2104,25 +2104,25 @@
         <v>1984</v>
       </c>
       <c r="B11">
-        <v>3.62039264425987</v>
+        <v>2.750815302301073</v>
       </c>
       <c r="C11">
-        <v>2.698158894647159</v>
+        <v>2.079428992522851</v>
       </c>
       <c r="D11">
-        <v>2.47208203625172</v>
+        <v>1.911622520187379</v>
       </c>
       <c r="E11">
-        <v>2.591500937960609</v>
+        <v>2.000416558170002</v>
       </c>
       <c r="F11">
-        <v>1.874250198288242</v>
+        <v>1.461979048159624</v>
       </c>
       <c r="G11">
-        <v>1.812311986966591</v>
+        <v>1.414913481863484</v>
       </c>
       <c r="I11">
-        <v>3.007353387273892</v>
+        <v>2.306900403053112</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2130,25 +2130,25 @@
         <v>1985</v>
       </c>
       <c r="B12">
-        <v>3.649765325960896</v>
+        <v>2.749503631575354</v>
       </c>
       <c r="C12">
-        <v>3.009171497166129</v>
+        <v>2.293467977161827</v>
       </c>
       <c r="D12">
-        <v>2.437548229830034</v>
+        <v>1.876446189181407</v>
       </c>
       <c r="E12">
-        <v>2.927757369926962</v>
+        <v>2.234645122769829</v>
       </c>
       <c r="F12">
-        <v>1.939697146251752</v>
+        <v>1.505780836936707</v>
       </c>
       <c r="G12">
-        <v>2.205556359263392</v>
+        <v>1.704569771519213</v>
       </c>
       <c r="I12">
-        <v>3.00196006351141</v>
+        <v>2.288265378321421</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2156,28 +2156,28 @@
         <v>1986</v>
       </c>
       <c r="B13">
-        <v>3.992548039762699</v>
+        <v>2.963171693957168</v>
       </c>
       <c r="C13">
-        <v>3.157214677870135</v>
+        <v>2.384727125202862</v>
       </c>
       <c r="D13">
-        <v>2.32516274862581</v>
+        <v>1.78545992898242</v>
       </c>
       <c r="E13">
-        <v>2.842696551582872</v>
+        <v>2.160842609291796</v>
       </c>
       <c r="F13">
-        <v>2.024900458809034</v>
+        <v>1.563795017768871</v>
       </c>
       <c r="G13">
-        <v>2.083145741029805</v>
+        <v>1.607012162149614</v>
       </c>
       <c r="H13">
-        <v>2.901793011398047</v>
+        <v>2.203157591832694</v>
       </c>
       <c r="I13">
-        <v>2.812672972168802</v>
+        <v>2.13930111174002</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2185,28 +2185,28 @@
         <v>1987</v>
       </c>
       <c r="B14">
-        <v>4.627199469088729</v>
+        <v>3.42020669349803</v>
       </c>
       <c r="C14">
-        <v>3.144516930904696</v>
+        <v>2.39036738327489</v>
       </c>
       <c r="D14">
-        <v>2.104213208299094</v>
+        <v>1.628823939406598</v>
       </c>
       <c r="E14">
-        <v>2.61761751563518</v>
+        <v>2.0085048578452</v>
       </c>
       <c r="F14">
-        <v>1.929595637784857</v>
+        <v>1.4980257439545</v>
       </c>
       <c r="G14">
-        <v>2.122565771516213</v>
+        <v>1.6425225948702</v>
       </c>
       <c r="H14">
-        <v>2.369572683964599</v>
+        <v>1.825986904799623</v>
       </c>
       <c r="I14">
-        <v>2.470066094812322</v>
+        <v>1.900141649609489</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2214,28 +2214,28 @@
         <v>1988</v>
       </c>
       <c r="B15">
-        <v>5.097762450344235</v>
+        <v>3.771321185313564</v>
       </c>
       <c r="C15">
-        <v>3.619122592085037</v>
+        <v>2.74572076693648</v>
       </c>
       <c r="D15">
-        <v>2.169851157653241</v>
+        <v>1.683953935859854</v>
       </c>
       <c r="E15">
-        <v>2.621694810220536</v>
+        <v>2.020708708157413</v>
       </c>
       <c r="F15">
-        <v>2.303375193929008</v>
+        <v>1.783993410500205</v>
       </c>
       <c r="G15">
-        <v>2.071920315843559</v>
+        <v>1.610304930570887</v>
       </c>
       <c r="H15">
-        <v>2.30852263082972</v>
+        <v>1.787841233709925</v>
       </c>
       <c r="I15">
-        <v>2.558478630533111</v>
+        <v>1.973899566521513</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2243,28 +2243,28 @@
         <v>1989</v>
       </c>
       <c r="B16">
-        <v>7.151573263528834</v>
+        <v>4.92756494851043</v>
       </c>
       <c r="C16">
-        <v>4.676236019105548</v>
+        <v>3.421014127672983</v>
       </c>
       <c r="D16">
-        <v>3.020437521111009</v>
+        <v>2.288753241233658</v>
       </c>
       <c r="E16">
-        <v>2.976933535467389</v>
+        <v>2.257753048274842</v>
       </c>
       <c r="F16">
-        <v>3.095295092597477</v>
+        <v>2.341950414093045</v>
       </c>
       <c r="G16">
-        <v>2.307665312564378</v>
+        <v>1.773175104233341</v>
       </c>
       <c r="H16">
-        <v>2.383204653401461</v>
+        <v>1.828578908259343</v>
       </c>
       <c r="I16">
-        <v>2.89575692213997</v>
+        <v>2.19974304549385</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2272,28 +2272,28 @@
         <v>1990</v>
       </c>
       <c r="B17">
-        <v>7.348791670988795</v>
+        <v>5.080800202839048</v>
       </c>
       <c r="C17">
-        <v>3.982078170088164</v>
+        <v>2.969135961547172</v>
       </c>
       <c r="D17">
-        <v>3.686257798190088</v>
+        <v>2.764896251099339</v>
       </c>
       <c r="E17">
-        <v>3.028775244467345</v>
+        <v>2.300915147653131</v>
       </c>
       <c r="F17">
-        <v>2.838777858280969</v>
+        <v>2.164315801740654</v>
       </c>
       <c r="G17">
-        <v>2.45292726101149</v>
+        <v>1.883523721173907</v>
       </c>
       <c r="H17">
-        <v>2.704790197476674</v>
+        <v>2.067320065120097</v>
       </c>
       <c r="I17">
-        <v>2.771080010293426</v>
+        <v>2.115376611460232</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2301,28 +2301,28 @@
         <v>1991</v>
       </c>
       <c r="B18">
-        <v>5.470820449421249</v>
+        <v>4.039320056487155</v>
       </c>
       <c r="C18">
-        <v>3.395620372485933</v>
+        <v>2.592266300017634</v>
       </c>
       <c r="D18">
-        <v>3.526698324409991</v>
+        <v>2.686955692707681</v>
       </c>
       <c r="E18">
-        <v>2.8749041304185</v>
+        <v>2.211924717038922</v>
       </c>
       <c r="F18">
-        <v>2.529300647847026</v>
+        <v>1.955870199715811</v>
       </c>
       <c r="G18">
-        <v>2.478686719141044</v>
+        <v>1.918132757508849</v>
       </c>
       <c r="H18">
-        <v>2.694907849049494</v>
+        <v>2.078922445403717</v>
       </c>
       <c r="I18">
-        <v>3.004410571895469</v>
+        <v>2.307136847731825</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2330,28 +2330,28 @@
         <v>1992</v>
       </c>
       <c r="B19">
-        <v>4.8084175140854</v>
+        <v>3.648458219242924</v>
       </c>
       <c r="C19">
-        <v>3.020923949481443</v>
+        <v>2.340959077842211</v>
       </c>
       <c r="D19">
-        <v>3.458150078556134</v>
+        <v>2.666417242619791</v>
       </c>
       <c r="E19">
-        <v>2.683779177379392</v>
+        <v>2.087586213693193</v>
       </c>
       <c r="F19">
-        <v>2.406952640953743</v>
+        <v>1.878000429221605</v>
       </c>
       <c r="G19">
-        <v>2.450945721353282</v>
+        <v>1.911399801740131</v>
       </c>
       <c r="H19">
-        <v>2.792380919872284</v>
+        <v>2.169430041875874</v>
       </c>
       <c r="I19">
-        <v>3.272520127404942</v>
+        <v>2.528675454351117</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2359,28 +2359,28 @@
         <v>1993</v>
       </c>
       <c r="B20">
-        <v>4.597841663675204</v>
+        <v>3.517056978658489</v>
       </c>
       <c r="C20">
-        <v>2.867072054416227</v>
+        <v>2.232730666444041</v>
       </c>
       <c r="D20">
-        <v>3.287987018029943</v>
+        <v>2.549694974552161</v>
       </c>
       <c r="E20">
-        <v>2.602180461093244</v>
+        <v>2.031778577233621</v>
       </c>
       <c r="F20">
-        <v>2.529120417912069</v>
+        <v>1.976155029987824</v>
       </c>
       <c r="G20">
-        <v>2.65795516618333</v>
+        <v>2.074184450598757</v>
       </c>
       <c r="H20">
-        <v>3.228762129367455</v>
+        <v>2.505272519467225</v>
       </c>
       <c r="I20">
-        <v>2.95784592985473</v>
+        <v>2.301332000194301</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2388,28 +2388,28 @@
         <v>1994</v>
       </c>
       <c r="B21">
-        <v>4.379285863462501</v>
+        <v>3.37854310157618</v>
       </c>
       <c r="C21">
-        <v>2.793302657512063</v>
+        <v>2.184983085050039</v>
       </c>
       <c r="D21">
-        <v>3.392072757958088</v>
+        <v>2.639786102154404</v>
       </c>
       <c r="E21">
-        <v>2.505873187815499</v>
+        <v>1.964901730595322</v>
       </c>
       <c r="F21">
-        <v>2.526091368912467</v>
+        <v>1.980419468493826</v>
       </c>
       <c r="G21">
-        <v>2.540467412538876</v>
+        <v>1.991449897274011</v>
       </c>
       <c r="H21">
-        <v>3.206562850779539</v>
+        <v>2.499414743196465</v>
       </c>
       <c r="I21">
-        <v>2.930940227738708</v>
+        <v>2.289968596767823</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2417,28 +2417,28 @@
         <v>1995</v>
       </c>
       <c r="B22">
-        <v>4.425113142002673</v>
+        <v>3.393369956873212</v>
       </c>
       <c r="C22">
-        <v>2.815734947243546</v>
+        <v>2.194719602476683</v>
       </c>
       <c r="D22">
-        <v>3.269762892209359</v>
+        <v>2.537188649146724</v>
       </c>
       <c r="E22">
-        <v>2.390867812563966</v>
+        <v>1.871265829302401</v>
       </c>
       <c r="F22">
-        <v>2.650232879248247</v>
+        <v>2.069061375009878</v>
       </c>
       <c r="G22">
-        <v>2.37552278974304</v>
+        <v>1.859530381283134</v>
       </c>
       <c r="H22">
-        <v>3.752516427822691</v>
+        <v>2.897642430599742</v>
       </c>
       <c r="I22">
-        <v>2.772982761094537</v>
+        <v>2.162301541079046</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2446,28 +2446,28 @@
         <v>1996</v>
       </c>
       <c r="B23">
-        <v>4.537951337590242</v>
+        <v>3.479779415261673</v>
       </c>
       <c r="C23">
-        <v>2.686821111715434</v>
+        <v>2.098203181310586</v>
       </c>
       <c r="D23">
-        <v>3.156976121715815</v>
+        <v>2.454280885864562</v>
       </c>
       <c r="E23">
-        <v>2.280951188201467</v>
+        <v>1.788065901317624</v>
       </c>
       <c r="F23">
-        <v>2.546621727055082</v>
+        <v>1.99135780590698</v>
       </c>
       <c r="G23">
-        <v>2.302737706889721</v>
+        <v>1.804777455096983</v>
       </c>
       <c r="H23">
-        <v>3.27946588359533</v>
+        <v>2.546480991981026</v>
       </c>
       <c r="I23">
-        <v>2.594428187998494</v>
+        <v>2.027824885979634</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2475,28 +2475,28 @@
         <v>1997</v>
       </c>
       <c r="B24">
-        <v>4.639959434287154</v>
+        <v>3.587912898720409</v>
       </c>
       <c r="C24">
-        <v>2.705827111009164</v>
+        <v>2.123513363199041</v>
       </c>
       <c r="D24">
-        <v>2.999392567841896</v>
+        <v>2.348758467316766</v>
       </c>
       <c r="E24">
-        <v>2.246333309608938</v>
+        <v>1.768877631427264</v>
       </c>
       <c r="F24">
-        <v>2.56090685938437</v>
+        <v>2.011936740037922</v>
       </c>
       <c r="G24">
-        <v>2.184394951481879</v>
+        <v>1.720881782439355</v>
       </c>
       <c r="H24">
-        <v>3.099010763475144</v>
+        <v>2.42495522969676</v>
       </c>
       <c r="I24">
-        <v>2.445421404241861</v>
+        <v>1.92284239403282</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2504,28 +2504,28 @@
         <v>1998</v>
       </c>
       <c r="B25">
-        <v>4.671541550474897</v>
+        <v>3.6234090311351</v>
       </c>
       <c r="C25">
-        <v>2.923968919553399</v>
+        <v>2.295490864524325</v>
       </c>
       <c r="D25">
-        <v>3.11049953610592</v>
+        <v>2.438854168560365</v>
       </c>
       <c r="E25">
-        <v>2.353372029558383</v>
+        <v>1.854591735237391</v>
       </c>
       <c r="F25">
-        <v>2.610880052750892</v>
+        <v>2.054003994962985</v>
       </c>
       <c r="G25">
-        <v>2.119196919711349</v>
+        <v>1.672630837830336</v>
       </c>
       <c r="H25">
-        <v>3.022069557768108</v>
+        <v>2.370936404365505</v>
       </c>
       <c r="I25">
-        <v>2.410480769932147</v>
+        <v>1.898877887555932</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2533,28 +2533,28 @@
         <v>1999</v>
       </c>
       <c r="B26">
-        <v>4.86025726264311</v>
+        <v>3.767546646504897</v>
       </c>
       <c r="C26">
-        <v>3.107098786224161</v>
+        <v>2.437351465645185</v>
       </c>
       <c r="D26">
-        <v>3.029997713701736</v>
+        <v>2.378080541921567</v>
       </c>
       <c r="E26">
-        <v>2.349491220282279</v>
+        <v>1.852203460159465</v>
       </c>
       <c r="F26">
-        <v>2.494912801936991</v>
+        <v>1.964992477873929</v>
       </c>
       <c r="G26">
-        <v>2.144871672247175</v>
+        <v>1.693125724819611</v>
       </c>
       <c r="H26">
-        <v>2.920676150310159</v>
+        <v>2.293931254664483</v>
       </c>
       <c r="I26">
-        <v>2.382351975552794</v>
+        <v>1.877709674968563</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2562,28 +2562,28 @@
         <v>2000</v>
       </c>
       <c r="B27">
-        <v>5.200944326262839</v>
+        <v>3.998672825650023</v>
       </c>
       <c r="C27">
-        <v>3.238405306989391</v>
+        <v>2.52948478105459</v>
       </c>
       <c r="D27">
-        <v>3.031720539536296</v>
+        <v>2.371852744591893</v>
       </c>
       <c r="E27">
-        <v>2.372734982032818</v>
+        <v>1.865693435908777</v>
       </c>
       <c r="F27">
-        <v>2.608515459023574</v>
+        <v>2.047413585292904</v>
       </c>
       <c r="G27">
-        <v>2.130127313056899</v>
+        <v>1.677998623003479</v>
       </c>
       <c r="H27">
-        <v>2.999034400146285</v>
+        <v>2.346874679334911</v>
       </c>
       <c r="I27">
-        <v>2.476734568930909</v>
+        <v>1.945932286407853</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2591,28 +2591,28 @@
         <v>2001</v>
       </c>
       <c r="B28">
-        <v>5.433505432053945</v>
+        <v>4.184774591610383</v>
       </c>
       <c r="C28">
-        <v>3.780610694820149</v>
+        <v>2.947594335186313</v>
       </c>
       <c r="D28">
-        <v>3.10730757587166</v>
+        <v>2.434329631214868</v>
       </c>
       <c r="E28">
-        <v>2.500796269927435</v>
+        <v>1.967518679562756</v>
       </c>
       <c r="F28">
-        <v>2.801798927477736</v>
+        <v>2.199712852714899</v>
       </c>
       <c r="G28">
-        <v>2.068840908264051</v>
+        <v>1.632529076300125</v>
       </c>
       <c r="H28">
-        <v>3.002413072692997</v>
+        <v>2.353895727404393</v>
       </c>
       <c r="I28">
-        <v>2.857725433515999</v>
+        <v>2.24274154527951</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2620,28 +2620,28 @@
         <v>2002</v>
       </c>
       <c r="B29">
-        <v>6.642975251901661</v>
+        <v>5.092933208352921</v>
       </c>
       <c r="C29">
-        <v>4.144959783681407</v>
+        <v>3.232069659273103</v>
       </c>
       <c r="D29">
-        <v>3.303687457479</v>
+        <v>2.590150346664716</v>
       </c>
       <c r="E29">
-        <v>2.892849897447388</v>
+        <v>2.273982544446299</v>
       </c>
       <c r="F29">
-        <v>2.9118899233849</v>
+        <v>2.288673593973356</v>
       </c>
       <c r="G29">
-        <v>2.236109968131731</v>
+        <v>1.764988928511164</v>
       </c>
       <c r="H29">
-        <v>2.879941663913353</v>
+        <v>2.264020594932752</v>
       </c>
       <c r="I29">
-        <v>3.329160125575843</v>
+        <v>2.609695802242531</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2649,28 +2649,28 @@
         <v>2003</v>
       </c>
       <c r="B30">
-        <v>7.634958822458558</v>
+        <v>5.79721408461549</v>
       </c>
       <c r="C30">
-        <v>4.535440808679986</v>
+        <v>3.522452910827504</v>
       </c>
       <c r="D30">
-        <v>4.126950735099212</v>
+        <v>3.214291034925036</v>
       </c>
       <c r="E30">
-        <v>3.631175346229596</v>
+        <v>2.837767628449594</v>
       </c>
       <c r="F30">
-        <v>3.231638104977209</v>
+        <v>2.532354952841441</v>
       </c>
       <c r="G30">
-        <v>2.681610094919053</v>
+        <v>2.109060279699264</v>
       </c>
       <c r="H30">
-        <v>3.211587457749131</v>
+        <v>2.516981834563205</v>
       </c>
       <c r="I30">
-        <v>4.16386045813787</v>
+        <v>3.242212796996698</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2678,28 +2678,28 @@
         <v>2004</v>
       </c>
       <c r="B31">
-        <v>8.344218542739405</v>
+        <v>6.275288815581958</v>
       </c>
       <c r="C31">
-        <v>4.726070080259705</v>
+        <v>3.657869841755943</v>
       </c>
       <c r="D31">
-        <v>5.054606764369318</v>
+        <v>3.902443635537902</v>
       </c>
       <c r="E31">
-        <v>4.16154785011872</v>
+        <v>3.234534376268751</v>
       </c>
       <c r="F31">
-        <v>3.987979630228306</v>
+        <v>3.103600269325511</v>
       </c>
       <c r="G31">
-        <v>3.684397450216288</v>
+        <v>2.873721350145317</v>
       </c>
       <c r="H31">
-        <v>3.387633054551285</v>
+        <v>2.647948292097243</v>
       </c>
       <c r="I31">
-        <v>4.747265192957193</v>
+        <v>3.673688323632524</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2707,28 +2707,28 @@
         <v>2005</v>
       </c>
       <c r="B32">
-        <v>7.682045282291643</v>
+        <v>5.798049138359654</v>
       </c>
       <c r="C32">
-        <v>4.586831612821437</v>
+        <v>3.55013705114784</v>
       </c>
       <c r="D32">
-        <v>4.912626718439872</v>
+        <v>3.79266091992091</v>
       </c>
       <c r="E32">
-        <v>4.234304988976844</v>
+        <v>3.286202985590225</v>
       </c>
       <c r="F32">
-        <v>4.459706240208789</v>
+        <v>3.455139399703367</v>
       </c>
       <c r="G32">
-        <v>3.905529397848826</v>
+        <v>3.038651366379428</v>
       </c>
       <c r="H32">
-        <v>4.1071343063287</v>
+        <v>3.190609163024256</v>
       </c>
       <c r="I32">
-        <v>4.651639331445169</v>
+        <v>3.598487685989477</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2736,28 +2736,28 @@
         <v>2006</v>
       </c>
       <c r="B33">
-        <v>7.155831935944374</v>
+        <v>5.414310583275302</v>
       </c>
       <c r="C33">
-        <v>4.833402290885231</v>
+        <v>3.72920535194541</v>
       </c>
       <c r="D33">
-        <v>4.900810298643447</v>
+        <v>3.779146784474987</v>
       </c>
       <c r="E33">
-        <v>4.167765232879107</v>
+        <v>3.232840666250411</v>
       </c>
       <c r="F33">
-        <v>6.268259371731894</v>
+        <v>4.779074837284797</v>
       </c>
       <c r="G33">
-        <v>4.031158766421908</v>
+        <v>3.13026045941115</v>
       </c>
       <c r="H33">
-        <v>5.056975764141042</v>
+        <v>3.894615427717755</v>
       </c>
       <c r="I33">
-        <v>4.625188021093865</v>
+        <v>3.574564021980143</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2765,28 +2765,28 @@
         <v>2007</v>
       </c>
       <c r="B34">
-        <v>7.470659053333521</v>
+        <v>5.609704341842918</v>
       </c>
       <c r="C34">
-        <v>5.029391283766997</v>
+        <v>3.862574552266871</v>
       </c>
       <c r="D34">
-        <v>5.486708032432521</v>
+        <v>4.196634740118525</v>
       </c>
       <c r="E34">
-        <v>4.582944911440561</v>
+        <v>3.533537555850092</v>
       </c>
       <c r="F34">
-        <v>6.575367944646508</v>
+        <v>4.979431939754949</v>
       </c>
       <c r="G34">
-        <v>4.465883818773288</v>
+        <v>3.446790628634728</v>
       </c>
       <c r="H34">
-        <v>5.311284413421822</v>
+        <v>4.068852059221837</v>
       </c>
       <c r="I34">
-        <v>4.699036648404063</v>
+        <v>3.619373507703651</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2794,28 +2794,28 @@
         <v>2008</v>
       </c>
       <c r="B35">
-        <v>6.817066200163111</v>
+        <v>5.110148757444208</v>
       </c>
       <c r="C35">
-        <v>5.295036337449328</v>
+        <v>4.033389401413248</v>
       </c>
       <c r="D35">
-        <v>5.93690587252025</v>
+        <v>4.492327728549808</v>
       </c>
       <c r="E35">
-        <v>5.334275970257951</v>
+        <v>4.061645264560888</v>
       </c>
       <c r="F35">
-        <v>5.590094309827585</v>
+        <v>4.245222235504696</v>
       </c>
       <c r="G35">
-        <v>4.333771801400776</v>
+        <v>3.333244258560765</v>
       </c>
       <c r="H35">
-        <v>5.439420434108196</v>
+        <v>4.137230928420663</v>
       </c>
       <c r="I35">
-        <v>4.965837655509431</v>
+        <v>3.795327517329309</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2823,28 +2823,28 @@
         <v>2009</v>
       </c>
       <c r="B36">
-        <v>6.205621740416581</v>
+        <v>4.782683470485683</v>
       </c>
       <c r="C36">
-        <v>5.196834844633149</v>
+        <v>4.031284550895818</v>
       </c>
       <c r="D36">
-        <v>5.243834472755173</v>
+        <v>4.066528655676776</v>
       </c>
       <c r="E36">
-        <v>4.618895835128051</v>
+        <v>3.596039028447333</v>
       </c>
       <c r="F36">
-        <v>5.324274561375437</v>
+        <v>4.126795963011349</v>
       </c>
       <c r="G36">
-        <v>3.984655352395393</v>
+        <v>3.11447934299968</v>
       </c>
       <c r="H36">
-        <v>5.144068901078902</v>
+        <v>3.991689151879946</v>
       </c>
       <c r="I36">
-        <v>4.500831631129492</v>
+        <v>3.506704616702907</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2852,28 +2852,28 @@
         <v>2010</v>
       </c>
       <c r="B37">
-        <v>7.417661047145356</v>
+        <v>5.618672305912187</v>
       </c>
       <c r="C37">
-        <v>6.13959817578867</v>
+        <v>4.698803839634762</v>
       </c>
       <c r="D37">
-        <v>5.723363443295661</v>
+        <v>4.394623769531571</v>
       </c>
       <c r="E37">
-        <v>5.21320280849547</v>
+        <v>4.01878738331177</v>
       </c>
       <c r="F37">
-        <v>5.478365268193174</v>
+        <v>4.214544921087368</v>
       </c>
       <c r="G37">
-        <v>4.356600263942032</v>
+        <v>3.380391340089881</v>
       </c>
       <c r="H37">
-        <v>6.113670106566929</v>
+        <v>4.679921049651618</v>
       </c>
       <c r="I37">
-        <v>5.114701116120975</v>
+        <v>3.945842361434555</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2881,28 +2881,28 @@
         <v>2011</v>
       </c>
       <c r="B38">
-        <v>6.76555415549872</v>
+        <v>5.130268515577835</v>
       </c>
       <c r="C38">
-        <v>6.061346180148619</v>
+        <v>4.624603099775473</v>
       </c>
       <c r="D38">
-        <v>4.934695073188815</v>
+        <v>3.801127238247623</v>
       </c>
       <c r="E38">
-        <v>4.756328675371954</v>
+        <v>3.669160267320182</v>
       </c>
       <c r="F38">
-        <v>4.995147874608544</v>
+        <v>3.845756176003077</v>
       </c>
       <c r="G38">
-        <v>4.205444458902654</v>
+        <v>3.258879381411855</v>
       </c>
       <c r="H38">
-        <v>5.546802381125237</v>
+        <v>4.250700904663016</v>
       </c>
       <c r="I38">
-        <v>4.883204756708387</v>
+        <v>3.763075644345658</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2910,28 +2910,28 @@
         <v>2012</v>
       </c>
       <c r="B39">
-        <v>6.949407902639998</v>
+        <v>5.293568183459723</v>
       </c>
       <c r="C39">
-        <v>5.583172378690254</v>
+        <v>4.297572755582799</v>
       </c>
       <c r="D39">
-        <v>4.78740721582254</v>
+        <v>3.706855586853321</v>
       </c>
       <c r="E39">
-        <v>4.293864684571762</v>
+        <v>3.336670129619126</v>
       </c>
       <c r="F39">
-        <v>4.649034571140725</v>
+        <v>3.603359960390572</v>
       </c>
       <c r="G39">
-        <v>3.846504925328728</v>
+        <v>2.998645866609486</v>
       </c>
       <c r="H39">
-        <v>5.78413110318359</v>
+        <v>4.445529963821149</v>
       </c>
       <c r="I39">
-        <v>4.310313119582216</v>
+        <v>3.349053845187877</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2939,28 +2939,28 @@
         <v>2013</v>
       </c>
       <c r="B40">
-        <v>7.421695027477664</v>
+        <v>5.668168319503073</v>
       </c>
       <c r="C40">
-        <v>5.837829445803082</v>
+        <v>4.506431448148462</v>
       </c>
       <c r="D40">
-        <v>4.762337276245456</v>
+        <v>3.702078430278618</v>
       </c>
       <c r="E40">
-        <v>4.263347062892462</v>
+        <v>3.324752042430358</v>
       </c>
       <c r="F40">
-        <v>4.985623810654605</v>
+        <v>3.870081228256476</v>
       </c>
       <c r="G40">
-        <v>3.783173548089763</v>
+        <v>2.959228071603365</v>
       </c>
       <c r="H40">
-        <v>5.09046600395606</v>
+        <v>3.948784410556305</v>
       </c>
       <c r="I40">
-        <v>4.21592500822512</v>
+        <v>3.288758149681853</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2968,28 +2968,28 @@
         <v>2014</v>
       </c>
       <c r="B41">
-        <v>7.637562549215569</v>
+        <v>5.845789704670756</v>
       </c>
       <c r="C41">
-        <v>5.426411664922146</v>
+        <v>4.210577219398353</v>
       </c>
       <c r="D41">
-        <v>4.587654694947081</v>
+        <v>3.577586626129153</v>
       </c>
       <c r="E41">
-        <v>4.265771224767777</v>
+        <v>3.332867270338948</v>
       </c>
       <c r="F41">
-        <v>4.475543120937757</v>
+        <v>3.492463631996344</v>
       </c>
       <c r="G41">
-        <v>3.846657969949065</v>
+        <v>3.012750623726224</v>
       </c>
       <c r="H41">
-        <v>4.802446546258104</v>
+        <v>3.740334414733974</v>
       </c>
       <c r="I41">
-        <v>4.472105542543605</v>
+        <v>3.489851678274637</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2997,28 +2997,28 @@
         <v>2015</v>
       </c>
       <c r="B42">
-        <v>9.156350332747076</v>
+        <v>6.935650794946079</v>
       </c>
       <c r="C42">
-        <v>5.890744094085947</v>
+        <v>4.5564350527648</v>
       </c>
       <c r="D42">
-        <v>4.751935013582196</v>
+        <v>3.701080517107409</v>
       </c>
       <c r="E42">
-        <v>4.245670214416046</v>
+        <v>3.316744835244013</v>
       </c>
       <c r="F42">
-        <v>4.658881925767198</v>
+        <v>3.63062477798904</v>
       </c>
       <c r="G42">
-        <v>3.751635475524627</v>
+        <v>2.939318074571398</v>
       </c>
       <c r="H42">
-        <v>5.348272388168673</v>
+        <v>4.150588316598011</v>
       </c>
       <c r="I42">
-        <v>4.615605232053161</v>
+        <v>3.597828857205625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3026,28 +3026,28 @@
         <v>2016</v>
       </c>
       <c r="B43">
-        <v>9.653799433534747</v>
+        <v>7.295545606222177</v>
       </c>
       <c r="C43">
-        <v>6.145175232587726</v>
+        <v>4.74860297375082</v>
       </c>
       <c r="D43">
-        <v>4.998288766854319</v>
+        <v>3.889035374785379</v>
       </c>
       <c r="E43">
-        <v>4.393720120154516</v>
+        <v>3.430796228718234</v>
       </c>
       <c r="F43">
-        <v>4.443507452890338</v>
+        <v>3.468664804838837</v>
       </c>
       <c r="G43">
-        <v>3.780122710317716</v>
+        <v>2.962169742028015</v>
       </c>
       <c r="H43">
-        <v>4.625268251845736</v>
+        <v>3.606713208856946</v>
       </c>
       <c r="I43">
-        <v>5.031885964181346</v>
+        <v>3.914397916617911</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3055,28 +3055,28 @@
         <v>2017</v>
       </c>
       <c r="B44">
-        <v>10.44812608285084</v>
+        <v>7.861208050669238</v>
       </c>
       <c r="C44">
-        <v>6.995163570192479</v>
+        <v>5.380255246154468</v>
       </c>
       <c r="D44">
-        <v>4.936261710072937</v>
+        <v>3.843626255224388</v>
       </c>
       <c r="E44">
-        <v>4.585793423555128</v>
+        <v>3.577996421688956</v>
       </c>
       <c r="F44">
-        <v>4.269115009206926</v>
+        <v>3.336984162100646</v>
       </c>
       <c r="G44">
-        <v>4.034642014907565</v>
+        <v>3.157933063253725</v>
       </c>
       <c r="H44">
-        <v>4.326892242557362</v>
+        <v>3.381026189634973</v>
       </c>
       <c r="I44">
-        <v>5.269285754063657</v>
+        <v>4.094955555052678</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3084,28 +3084,28 @@
         <v>2018</v>
       </c>
       <c r="B45">
-        <v>9.345075416834908</v>
+        <v>7.080826906501365</v>
       </c>
       <c r="C45">
-        <v>7.027428608134723</v>
+        <v>5.403252769265154</v>
       </c>
       <c r="D45">
-        <v>4.87005419760313</v>
+        <v>3.793187522990097</v>
       </c>
       <c r="E45">
-        <v>4.521652042888626</v>
+        <v>3.528959350829764</v>
       </c>
       <c r="F45">
-        <v>4.034893746588526</v>
+        <v>3.157891024866892</v>
       </c>
       <c r="G45">
-        <v>4.406040146705254</v>
+        <v>3.441026294757061</v>
       </c>
       <c r="H45">
-        <v>4.265693300527615</v>
+        <v>3.334111620437575</v>
       </c>
       <c r="I45">
-        <v>5.448052482252034</v>
+        <v>4.228992649733992</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3113,28 +3113,28 @@
         <v>2019</v>
       </c>
       <c r="B46">
-        <v>8.209313660438243</v>
+        <v>6.309921602777034</v>
       </c>
       <c r="C46">
-        <v>6.395385287387254</v>
+        <v>4.962352822962322</v>
       </c>
       <c r="D46">
-        <v>4.769627384376607</v>
+        <v>3.731242559494385</v>
       </c>
       <c r="E46">
-        <v>4.410565249701771</v>
+        <v>3.456452175599198</v>
       </c>
       <c r="F46">
-        <v>3.712639898483499</v>
+        <v>2.919400908893216</v>
       </c>
       <c r="G46">
-        <v>4.50208393628235</v>
+        <v>3.526589278306945</v>
       </c>
       <c r="H46">
-        <v>3.809853334336366</v>
+        <v>2.994436403356961</v>
       </c>
       <c r="I46">
-        <v>5.332178927750159</v>
+        <v>4.159678710195974</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3142,28 +3142,28 @@
         <v>2020</v>
       </c>
       <c r="B47">
-        <v>8.053372831584786</v>
+        <v>6.267602597217528</v>
       </c>
       <c r="C47">
-        <v>5.924144680704592</v>
+        <v>4.645798496839677</v>
       </c>
       <c r="D47">
-        <v>4.644536480015632</v>
+        <v>3.658603443028743</v>
       </c>
       <c r="E47">
-        <v>4.304124913540797</v>
+        <v>3.394431091669885</v>
       </c>
       <c r="F47">
-        <v>3.355332056987052</v>
+        <v>2.654743525317953</v>
       </c>
       <c r="G47">
-        <v>4.687550619665781</v>
+        <v>3.691938009384</v>
       </c>
       <c r="H47">
-        <v>3.769274684436038</v>
+        <v>2.978067035001773</v>
       </c>
       <c r="I47">
-        <v>5.149680908696941</v>
+        <v>4.049419039272961</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3171,28 +3171,28 @@
         <v>2021</v>
       </c>
       <c r="B48">
-        <v>9.785644607597204</v>
+        <v>7.603941007129116</v>
       </c>
       <c r="C48">
-        <v>7.381995380847819</v>
+        <v>5.779415709508306</v>
       </c>
       <c r="D48">
-        <v>5.566212980723203</v>
+        <v>4.381926425746391</v>
       </c>
       <c r="E48">
-        <v>4.768221849339794</v>
+        <v>3.76266832648114</v>
       </c>
       <c r="F48">
-        <v>3.785050457686986</v>
+        <v>2.995505354302178</v>
       </c>
       <c r="G48">
-        <v>5.941968914942404</v>
+        <v>4.672451217360593</v>
       </c>
       <c r="H48">
-        <v>4.022468652035546</v>
+        <v>3.181182771940968</v>
       </c>
       <c r="I48">
-        <v>6.178647656224885</v>
+        <v>4.855090991243112</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3200,28 +3200,28 @@
         <v>2022</v>
       </c>
       <c r="B49">
-        <v>12.87193403214372</v>
+        <v>9.818768045715187</v>
       </c>
       <c r="C49">
-        <v>8.260782079788948</v>
+        <v>6.416967208432294</v>
       </c>
       <c r="D49">
-        <v>6.501390030047156</v>
+        <v>5.083715591210983</v>
       </c>
       <c r="E49">
-        <v>6.576246737270175</v>
+        <v>5.140824626337782</v>
       </c>
       <c r="F49">
-        <v>4.371178190463856</v>
+        <v>3.444595715307955</v>
       </c>
       <c r="G49">
-        <v>6.361974347513203</v>
+        <v>4.977263969703347</v>
       </c>
       <c r="H49">
-        <v>4.428615073797554</v>
+        <v>3.489140524979338</v>
       </c>
       <c r="I49">
-        <v>7.520706064388325</v>
+        <v>5.858449639192576</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3229,28 +3229,28 @@
         <v>2023</v>
       </c>
       <c r="B50">
-        <v>13.97589251570924</v>
+        <v>10.26817573361278</v>
       </c>
       <c r="C50">
-        <v>8.315730354106272</v>
+        <v>6.34536591111614</v>
       </c>
       <c r="D50">
-        <v>6.729123019671555</v>
+        <v>5.185110093452192</v>
       </c>
       <c r="E50">
-        <v>7.049867844833318</v>
+        <v>5.42169882571114</v>
       </c>
       <c r="F50">
-        <v>4.982327950154057</v>
+        <v>3.879024531247875</v>
       </c>
       <c r="G50">
-        <v>5.655804333822002</v>
+        <v>4.38606904568952</v>
       </c>
       <c r="H50">
-        <v>4.671159761117558</v>
+        <v>3.643302621298647</v>
       </c>
       <c r="I50">
-        <v>7.555530069546372</v>
+        <v>5.792605934060055</v>
       </c>
     </row>
   </sheetData>
@@ -3300,25 +3300,25 @@
         <v>1975</v>
       </c>
       <c r="B2">
-        <v>3.961457901624316</v>
+        <v>3.16918584004696</v>
       </c>
       <c r="C2">
-        <v>3.235430036199473</v>
+        <v>2.609594045884081</v>
       </c>
       <c r="D2">
-        <v>2.779518184480107</v>
+        <v>2.253029723899484</v>
       </c>
       <c r="E2">
-        <v>3.105748163967603</v>
+        <v>2.508569572307039</v>
       </c>
       <c r="F2">
-        <v>2.779945407480826</v>
+        <v>2.253365671297825</v>
       </c>
       <c r="G2">
-        <v>2.993981989580466</v>
+        <v>2.42124641906521</v>
       </c>
       <c r="I2">
-        <v>3.058077626927</v>
+        <v>2.471353281069938</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3326,25 +3326,25 @@
         <v>1976</v>
       </c>
       <c r="B3">
-        <v>3.691485142937934</v>
+        <v>2.962707480322919</v>
       </c>
       <c r="C3">
-        <v>3.282895358050026</v>
+        <v>2.646803179352144</v>
       </c>
       <c r="D3">
-        <v>2.662905480135551</v>
+        <v>2.161406457136312</v>
       </c>
       <c r="E3">
-        <v>3.029806335410363</v>
+        <v>2.449525548448894</v>
       </c>
       <c r="F3">
-        <v>3.281138274754621</v>
+        <v>2.645437753146902</v>
       </c>
       <c r="G3">
-        <v>3.27634207663467</v>
+        <v>2.641710337105605</v>
       </c>
       <c r="I3">
-        <v>2.826620926241479</v>
+        <v>2.290276701933525</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3352,25 +3352,25 @@
         <v>1977</v>
       </c>
       <c r="B4">
-        <v>3.516572602492367</v>
+        <v>2.820009496189678</v>
       </c>
       <c r="C4">
-        <v>3.397629135356151</v>
+        <v>2.72853898746544</v>
       </c>
       <c r="D4">
-        <v>2.637841372473768</v>
+        <v>2.137385522265867</v>
       </c>
       <c r="E4">
-        <v>3.025045513411244</v>
+        <v>2.440115960329937</v>
       </c>
       <c r="F4">
-        <v>3.238117087430263</v>
+        <v>2.605408047501995</v>
       </c>
       <c r="G4">
-        <v>3.216135188693404</v>
+        <v>2.588398479368603</v>
       </c>
       <c r="I4">
-        <v>2.682838437881343</v>
+        <v>2.172719888675948</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3378,25 +3378,25 @@
         <v>1978</v>
       </c>
       <c r="B5">
-        <v>3.548383083693523</v>
+        <v>2.845079869696687</v>
       </c>
       <c r="C5">
-        <v>3.082265916365998</v>
+        <v>2.485081910548866</v>
       </c>
       <c r="D5">
-        <v>2.475456363907398</v>
+        <v>2.009842318491193</v>
       </c>
       <c r="E5">
-        <v>2.784872863055501</v>
+        <v>2.253084798210915</v>
       </c>
       <c r="F5">
-        <v>3.14288825500684</v>
+        <v>2.532154662447549</v>
       </c>
       <c r="G5">
-        <v>2.860944579916162</v>
+        <v>2.312597299011151</v>
       </c>
       <c r="I5">
-        <v>2.424561486745628</v>
+        <v>1.969652625232077</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3404,25 +3404,25 @@
         <v>1979</v>
       </c>
       <c r="B6">
-        <v>3.98282912799148</v>
+        <v>3.180748570066941</v>
       </c>
       <c r="C6">
-        <v>2.870920059054227</v>
+        <v>2.322475886432221</v>
       </c>
       <c r="D6">
-        <v>2.440823602872239</v>
+        <v>1.983975774957311</v>
       </c>
       <c r="E6">
-        <v>2.623644446431403</v>
+        <v>2.128292847416118</v>
       </c>
       <c r="F6">
-        <v>2.940092129665973</v>
+        <v>2.376585013061932</v>
       </c>
       <c r="G6">
-        <v>2.727817266160846</v>
+        <v>2.210241744638153</v>
       </c>
       <c r="I6">
-        <v>2.431449922784866</v>
+        <v>1.976559268139278</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3430,25 +3430,25 @@
         <v>1980</v>
       </c>
       <c r="B7">
-        <v>5.059840804194335</v>
+        <v>3.957690014875715</v>
       </c>
       <c r="C7">
-        <v>2.634010620111521</v>
+        <v>2.129189164965333</v>
       </c>
       <c r="D7">
-        <v>2.42403948794251</v>
+        <v>1.964603315211811</v>
       </c>
       <c r="E7">
-        <v>2.464291617407311</v>
+        <v>1.996228344117904</v>
       </c>
       <c r="F7">
-        <v>2.710508176033637</v>
+        <v>2.18891490593157</v>
       </c>
       <c r="G7">
-        <v>2.539363034401371</v>
+        <v>2.055117155200451</v>
       </c>
       <c r="I7">
-        <v>2.492667058857499</v>
+        <v>2.018501323228066</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3456,25 +3456,25 @@
         <v>1981</v>
       </c>
       <c r="B8">
-        <v>5.405595637043485</v>
+        <v>4.16117280903961</v>
       </c>
       <c r="C8">
-        <v>2.665696165619209</v>
+        <v>2.144277737483255</v>
       </c>
       <c r="D8">
-        <v>2.842497475720499</v>
+        <v>2.280570725803721</v>
       </c>
       <c r="E8">
-        <v>2.409981773485131</v>
+        <v>1.945759682328381</v>
       </c>
       <c r="F8">
-        <v>2.662116504843988</v>
+        <v>2.141510057824922</v>
       </c>
       <c r="G8">
-        <v>2.35174001130733</v>
+        <v>1.900317788434783</v>
       </c>
       <c r="I8">
-        <v>3.002290233744295</v>
+        <v>2.403064478636495</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3482,25 +3482,25 @@
         <v>1982</v>
       </c>
       <c r="B9">
-        <v>4.931370358965616</v>
+        <v>3.788237346528436</v>
       </c>
       <c r="C9">
-        <v>2.590968928538082</v>
+        <v>2.076933407204503</v>
       </c>
       <c r="D9">
-        <v>3.228668234189557</v>
+        <v>2.560155227170557</v>
       </c>
       <c r="E9">
-        <v>2.416144811061304</v>
+        <v>1.942387460298805</v>
       </c>
       <c r="F9">
-        <v>2.693300146145643</v>
+        <v>2.15528092609157</v>
       </c>
       <c r="G9">
-        <v>2.358991624451693</v>
+        <v>1.898213352738649</v>
       </c>
       <c r="I9">
-        <v>2.797031088468052</v>
+        <v>2.234389742521845</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3508,25 +3508,25 @@
         <v>1983</v>
       </c>
       <c r="B10">
-        <v>4.416529885896721</v>
+        <v>3.47273824101975</v>
       </c>
       <c r="C10">
-        <v>2.723206696048067</v>
+        <v>2.194022669555985</v>
       </c>
       <c r="D10">
-        <v>2.917262154745432</v>
+        <v>2.34414110388443</v>
       </c>
       <c r="E10">
-        <v>2.486726793934956</v>
+        <v>2.009890873142613</v>
       </c>
       <c r="F10">
-        <v>2.496455470230392</v>
+        <v>2.017491578896037</v>
       </c>
       <c r="G10">
-        <v>2.212411288621661</v>
+        <v>1.794684148876854</v>
       </c>
       <c r="I10">
-        <v>2.961201964774637</v>
+        <v>2.378008149189462</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3534,25 +3534,25 @@
         <v>1984</v>
       </c>
       <c r="B11">
-        <v>4.182035354543764</v>
+        <v>3.312458012584967</v>
       </c>
       <c r="C11">
-        <v>3.143243838985757</v>
+        <v>2.524513936861449</v>
       </c>
       <c r="D11">
-        <v>2.886187438234469</v>
+        <v>2.325727922170128</v>
       </c>
       <c r="E11">
-        <v>3.022094955982759</v>
+        <v>2.431010576192151</v>
       </c>
       <c r="F11">
-        <v>2.20143002093948</v>
+        <v>1.789158870810862</v>
       </c>
       <c r="G11">
-        <v>2.130050692852877</v>
+        <v>1.73265218774977</v>
       </c>
       <c r="I11">
-        <v>3.493224377523206</v>
+        <v>2.792771393302426</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3560,25 +3560,25 @@
         <v>1985</v>
       </c>
       <c r="B12">
-        <v>4.194422332570602</v>
+        <v>3.294160638185062</v>
       </c>
       <c r="C12">
-        <v>3.480374665564629</v>
+        <v>2.764671145560327</v>
       </c>
       <c r="D12">
-        <v>2.836429267168099</v>
+        <v>2.275327226519472</v>
       </c>
       <c r="E12">
-        <v>3.389067314576499</v>
+        <v>2.695955067419366</v>
       </c>
       <c r="F12">
-        <v>2.269814615068646</v>
+        <v>1.835898305753602</v>
       </c>
       <c r="G12">
-        <v>2.57309688291717</v>
+        <v>2.072110295172991</v>
       </c>
       <c r="I12">
-        <v>3.472292195061788</v>
+        <v>2.7585975098718</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3586,28 +3586,28 @@
         <v>1986</v>
       </c>
       <c r="B13">
-        <v>4.556809598420868</v>
+        <v>3.527433252615337</v>
       </c>
       <c r="C13">
-        <v>3.634538402031752</v>
+        <v>2.862050849364479</v>
       </c>
       <c r="D13">
-        <v>2.702058146719294</v>
+        <v>2.162355327075904</v>
       </c>
       <c r="E13">
-        <v>3.283804210852566</v>
+        <v>2.60195026856149</v>
       </c>
       <c r="F13">
-        <v>2.361702266840278</v>
+        <v>1.900596825800115</v>
       </c>
       <c r="G13">
-        <v>2.427896327722397</v>
+        <v>1.951762748842206</v>
       </c>
       <c r="H13">
-        <v>3.349861331569228</v>
+        <v>2.651225912003875</v>
       </c>
       <c r="I13">
-        <v>3.250216061289916</v>
+        <v>2.576844200861134</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3615,28 +3615,28 @@
         <v>1987</v>
       </c>
       <c r="B14">
-        <v>5.273125150053691</v>
+        <v>4.066132374462992</v>
       </c>
       <c r="C14">
-        <v>3.633413990890103</v>
+        <v>2.879264443260297</v>
       </c>
       <c r="D14">
-        <v>2.458422215933272</v>
+        <v>1.983032947040775</v>
       </c>
       <c r="E14">
-        <v>3.041129586386091</v>
+        <v>2.432016928596112</v>
       </c>
       <c r="F14">
-        <v>2.258881154653794</v>
+        <v>1.827311260823437</v>
       </c>
       <c r="G14">
-        <v>2.479353216075814</v>
+        <v>1.999310039429801</v>
       </c>
       <c r="H14">
-        <v>2.760323276556049</v>
+        <v>2.216737497391073</v>
       </c>
       <c r="I14">
-        <v>2.874248718047913</v>
+        <v>2.30432427284508</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3644,28 +3644,28 @@
         <v>1988</v>
       </c>
       <c r="B15">
-        <v>5.810633320894213</v>
+        <v>4.484192055863542</v>
       </c>
       <c r="C15">
-        <v>4.176679131749403</v>
+        <v>3.303277306600846</v>
       </c>
       <c r="D15">
-        <v>2.539304422190944</v>
+        <v>2.053407200397558</v>
       </c>
       <c r="E15">
-        <v>3.054125924302511</v>
+        <v>2.453139822239388</v>
       </c>
       <c r="F15">
-        <v>2.691877326917029</v>
+        <v>2.172495543488226</v>
       </c>
       <c r="G15">
-        <v>2.427161637604459</v>
+        <v>1.965546252331786</v>
       </c>
       <c r="H15">
-        <v>2.697751622143636</v>
+        <v>2.177070225023841</v>
       </c>
       <c r="I15">
-        <v>2.982348543583059</v>
+        <v>2.397769479571461</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3673,28 +3673,28 @@
         <v>1989</v>
       </c>
       <c r="B16">
-        <v>7.950695683949279</v>
+        <v>5.726687368930875</v>
       </c>
       <c r="C16">
-        <v>5.302527789827437</v>
+        <v>4.047305898394872</v>
       </c>
       <c r="D16">
-        <v>3.482133815550066</v>
+        <v>2.750449535672715</v>
       </c>
       <c r="E16">
-        <v>3.433623430374123</v>
+        <v>2.714442943181576</v>
       </c>
       <c r="F16">
-        <v>3.565515663209291</v>
+        <v>2.812170984704859</v>
       </c>
       <c r="G16">
-        <v>2.682214737930394</v>
+        <v>2.147724529599358</v>
       </c>
       <c r="H16">
-        <v>2.767527444165291</v>
+        <v>2.212901699023171</v>
       </c>
       <c r="I16">
-        <v>3.343000614897867</v>
+        <v>2.646986738251747</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3702,28 +3702,28 @@
         <v>1990</v>
       </c>
       <c r="B17">
-        <v>8.183312086131121</v>
+        <v>5.915320617981374</v>
       </c>
       <c r="C17">
-        <v>4.55581617997591</v>
+        <v>3.542873971434918</v>
       </c>
       <c r="D17">
-        <v>4.229434658710831</v>
+        <v>3.308073111620081</v>
       </c>
       <c r="E17">
-        <v>3.498368942999666</v>
+        <v>2.770508846185452</v>
       </c>
       <c r="F17">
-        <v>3.285549378499401</v>
+        <v>2.611087321959086</v>
       </c>
       <c r="G17">
-        <v>2.851031825957276</v>
+        <v>2.281628286119693</v>
       </c>
       <c r="H17">
-        <v>3.135021324619993</v>
+        <v>2.497551192263416</v>
       </c>
       <c r="I17">
-        <v>3.209541270940897</v>
+        <v>2.553837872107703</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3731,28 +3731,28 @@
         <v>1991</v>
       </c>
       <c r="B18">
-        <v>6.234846370261774</v>
+        <v>4.80334597732768</v>
       </c>
       <c r="C18">
-        <v>3.934688509207075</v>
+        <v>3.131334436738776</v>
       </c>
       <c r="D18">
-        <v>4.081918765029434</v>
+        <v>3.242176133327123</v>
       </c>
       <c r="E18">
-        <v>3.34687319823171</v>
+        <v>2.683893784852131</v>
       </c>
       <c r="F18">
-        <v>2.954016043236767</v>
+        <v>2.380585595105552</v>
       </c>
       <c r="G18">
-        <v>2.896291102952847</v>
+        <v>2.335737141320652</v>
       </c>
       <c r="H18">
-        <v>3.142546723039707</v>
+        <v>2.526561319393928</v>
       </c>
       <c r="I18">
-        <v>3.493517021618092</v>
+        <v>2.796243297454448</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3760,28 +3760,28 @@
         <v>1992</v>
       </c>
       <c r="B19">
-        <v>5.556367956196923</v>
+        <v>4.396408661354448</v>
       </c>
       <c r="C19">
-        <v>3.534761003886401</v>
+        <v>2.854796132247169</v>
       </c>
       <c r="D19">
-        <v>4.033426960386797</v>
+        <v>3.241694124450454</v>
       </c>
       <c r="E19">
-        <v>3.148238437399245</v>
+        <v>2.552045473713045</v>
       </c>
       <c r="F19">
-        <v>2.829511082081108</v>
+        <v>2.30055887034897</v>
       </c>
       <c r="G19">
-        <v>2.880246629969809</v>
+        <v>2.340700710356659</v>
       </c>
       <c r="H19">
-        <v>3.272941080743351</v>
+        <v>2.64999020274694</v>
       </c>
       <c r="I19">
-        <v>3.822061919329278</v>
+        <v>3.078217246275453</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3789,28 +3789,28 @@
         <v>1993</v>
       </c>
       <c r="B20">
-        <v>5.338669576353254</v>
+        <v>4.257884891336539</v>
       </c>
       <c r="C20">
-        <v>3.366617866856486</v>
+        <v>2.7322764788843</v>
       </c>
       <c r="D20">
-        <v>3.849923539798859</v>
+        <v>3.111631496321078</v>
       </c>
       <c r="E20">
-        <v>3.061153526910974</v>
+        <v>2.490751643051351</v>
       </c>
       <c r="F20">
-        <v>2.97672048055871</v>
+        <v>2.423755092634465</v>
       </c>
       <c r="G20">
-        <v>3.125556963865617</v>
+        <v>2.541786248281043</v>
       </c>
       <c r="H20">
-        <v>3.782070989610885</v>
+        <v>3.058581379710655</v>
       </c>
       <c r="I20">
-        <v>3.471060094658832</v>
+        <v>2.814546164998403</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3818,28 +3818,28 @@
         <v>1994</v>
       </c>
       <c r="B21">
-        <v>5.108365388894863</v>
+        <v>4.107622627008543</v>
       </c>
       <c r="C21">
-        <v>3.289174767793056</v>
+        <v>2.680855195331032</v>
       </c>
       <c r="D21">
-        <v>3.979677674899302</v>
+        <v>3.227391019095619</v>
       </c>
       <c r="E21">
-        <v>2.956026903549162</v>
+        <v>2.415055446328985</v>
       </c>
       <c r="F21">
-        <v>2.979497660561081</v>
+        <v>2.43382576014244</v>
       </c>
       <c r="G21">
-        <v>2.996183029684068</v>
+        <v>2.447165514419203</v>
       </c>
       <c r="H21">
-        <v>3.766243027015585</v>
+        <v>3.059094919432511</v>
       </c>
       <c r="I21">
-        <v>3.448312657194924</v>
+        <v>2.807341026224039</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3847,28 +3847,28 @@
         <v>1995</v>
       </c>
       <c r="B22">
-        <v>5.13998762071535</v>
+        <v>4.108244435585888</v>
       </c>
       <c r="C22">
-        <v>3.305916550555174</v>
+        <v>2.684901205788311</v>
       </c>
       <c r="D22">
-        <v>3.826942194123721</v>
+        <v>3.094367951061086</v>
       </c>
       <c r="E22">
-        <v>2.81559094916352</v>
+        <v>2.295988965901955</v>
       </c>
       <c r="F22">
-        <v>3.115240827414758</v>
+        <v>2.534069323176388</v>
       </c>
       <c r="G22">
-        <v>2.797830095826117</v>
+        <v>2.281837687366211</v>
       </c>
       <c r="H22">
-        <v>4.377746406058431</v>
+        <v>3.522872408835484</v>
       </c>
       <c r="I22">
-        <v>3.256700723911026</v>
+        <v>2.646019503895535</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3876,28 +3876,28 @@
         <v>1996</v>
       </c>
       <c r="B23">
-        <v>5.27178745576532</v>
+        <v>4.213615533436752</v>
       </c>
       <c r="C23">
-        <v>3.159212193287356</v>
+        <v>2.570594262882508</v>
       </c>
       <c r="D23">
-        <v>3.700175194623396</v>
+        <v>2.997479958772143</v>
       </c>
       <c r="E23">
-        <v>2.689606456660176</v>
+        <v>2.196721169776334</v>
       </c>
       <c r="F23">
-        <v>2.997275886113474</v>
+        <v>2.442011964965372</v>
       </c>
       <c r="G23">
-        <v>2.71487751657091</v>
+        <v>2.216917264778172</v>
       </c>
       <c r="H23">
-        <v>3.840598304272846</v>
+        <v>3.107613412658542</v>
       </c>
       <c r="I23">
-        <v>3.052527153955483</v>
+        <v>2.485923851936622</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3905,28 +3905,28 @@
         <v>1997</v>
       </c>
       <c r="B24">
-        <v>5.419529553133873</v>
+        <v>4.367483017567128</v>
       </c>
       <c r="C24">
-        <v>3.193657840828781</v>
+        <v>2.611344093018659</v>
       </c>
       <c r="D24">
-        <v>3.534304368911679</v>
+        <v>2.883670268386549</v>
       </c>
       <c r="E24">
-        <v>2.658321154530784</v>
+        <v>2.18086547634911</v>
       </c>
       <c r="F24">
-        <v>3.025104300331661</v>
+        <v>2.476134180985214</v>
       </c>
       <c r="G24">
-        <v>2.585953980388505</v>
+        <v>2.12244081134598</v>
       </c>
       <c r="H24">
-        <v>3.649661359081628</v>
+        <v>2.975605825303244</v>
       </c>
       <c r="I24">
-        <v>2.890597543857818</v>
+        <v>2.368018533648777</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3934,28 +3934,28 @@
         <v>1998</v>
       </c>
       <c r="B25">
-        <v>5.467270195177703</v>
+        <v>4.419137675837906</v>
       </c>
       <c r="C25">
-        <v>3.451941211856625</v>
+        <v>2.823463156827552</v>
       </c>
       <c r="D25">
-        <v>3.668620206838231</v>
+        <v>2.996974839292676</v>
       </c>
       <c r="E25">
-        <v>2.786650718946265</v>
+        <v>2.287870424625273</v>
       </c>
       <c r="F25">
-        <v>3.087360469337076</v>
+        <v>2.530484411549169</v>
       </c>
       <c r="G25">
-        <v>2.512507531538328</v>
+        <v>2.065941449657314</v>
       </c>
       <c r="H25">
-        <v>3.565946298689655</v>
+        <v>2.914813145287052</v>
       </c>
       <c r="I25">
-        <v>2.85340766944806</v>
+        <v>2.341804787071845</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3963,28 +3963,28 @@
         <v>1999</v>
       </c>
       <c r="B26">
-        <v>5.685521224367292</v>
+        <v>4.59281060822908</v>
       </c>
       <c r="C26">
-        <v>3.665795924892928</v>
+        <v>2.996048604313951</v>
       </c>
       <c r="D26">
-        <v>3.576227366435568</v>
+        <v>2.9243101946554</v>
       </c>
       <c r="E26">
-        <v>2.782784545327192</v>
+        <v>2.285496785204378</v>
       </c>
       <c r="F26">
-        <v>2.952784181222</v>
+        <v>2.422863857158938</v>
       </c>
       <c r="G26">
-        <v>2.543163716076259</v>
+        <v>2.091417768648695</v>
       </c>
       <c r="H26">
-        <v>3.449115333468043</v>
+        <v>2.822370437822367</v>
       </c>
       <c r="I26">
-        <v>2.821220633166611</v>
+        <v>2.31657833258238</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3992,28 +3992,28 @@
         <v>2000</v>
       </c>
       <c r="B27">
-        <v>6.050799080166827</v>
+        <v>4.848527579554012</v>
       </c>
       <c r="C27">
-        <v>3.808001298255363</v>
+        <v>3.099080772320563</v>
       </c>
       <c r="D27">
-        <v>3.569203818417896</v>
+        <v>2.909336023473492</v>
       </c>
       <c r="E27">
-        <v>2.804243574821445</v>
+        <v>2.297202028697404</v>
       </c>
       <c r="F27">
-        <v>3.078580413288752</v>
+        <v>2.517478539558082</v>
       </c>
       <c r="G27">
-        <v>2.521199256657387</v>
+        <v>2.069070566603966</v>
       </c>
       <c r="H27">
-        <v>3.531390919820611</v>
+        <v>2.879231199009237</v>
       </c>
       <c r="I27">
-        <v>2.925339122578792</v>
+        <v>2.394536840055736</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4021,28 +4021,28 @@
         <v>2001</v>
       </c>
       <c r="B28">
-        <v>6.330909084531137</v>
+        <v>5.082178244087575</v>
       </c>
       <c r="C28">
-        <v>4.441049927458333</v>
+        <v>3.608033567824497</v>
       </c>
       <c r="D28">
-        <v>3.662931229096261</v>
+        <v>2.98995328443947</v>
       </c>
       <c r="E28">
-        <v>2.957567776520005</v>
+        <v>2.424290186155326</v>
       </c>
       <c r="F28">
-        <v>3.308168340167107</v>
+        <v>2.70608226540427</v>
       </c>
       <c r="G28">
-        <v>2.452528733168979</v>
+        <v>2.016216901205053</v>
       </c>
       <c r="H28">
-        <v>3.541247300683715</v>
+        <v>2.892729955395111</v>
       </c>
       <c r="I28">
-        <v>3.373192386703483</v>
+        <v>2.758208498466994</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4050,28 +4050,28 @@
         <v>2002</v>
       </c>
       <c r="B29">
-        <v>7.717036602358514</v>
+        <v>6.166994558809774</v>
       </c>
       <c r="C29">
-        <v>4.868847805402849</v>
+        <v>3.955957680994545</v>
       </c>
       <c r="D29">
-        <v>3.896246914571852</v>
+        <v>3.182709803757567</v>
       </c>
       <c r="E29">
-        <v>3.418592370064492</v>
+        <v>2.799725017063404</v>
       </c>
       <c r="F29">
-        <v>3.440769068385097</v>
+        <v>2.817552738973554</v>
       </c>
       <c r="G29">
-        <v>2.65121270402745</v>
+        <v>2.180091664406882</v>
       </c>
       <c r="H29">
-        <v>3.403555382929746</v>
+        <v>2.787634313949145</v>
       </c>
       <c r="I29">
-        <v>3.925803250926017</v>
+        <v>3.206338927592705</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4079,28 +4079,28 @@
         <v>2003</v>
       </c>
       <c r="B30">
-        <v>8.820871088889728</v>
+        <v>6.98312635104666</v>
       </c>
       <c r="C30">
-        <v>5.312845173645288</v>
+        <v>4.299857275792806</v>
       </c>
       <c r="D30">
-        <v>4.843852134328527</v>
+        <v>3.931192434154352</v>
       </c>
       <c r="E30">
-        <v>4.272345934848897</v>
+        <v>3.478938217068894</v>
       </c>
       <c r="F30">
-        <v>3.809882269437326</v>
+        <v>3.110599117301558</v>
       </c>
       <c r="G30">
-        <v>3.170353818244291</v>
+        <v>2.597804003024502</v>
       </c>
       <c r="H30">
-        <v>3.786628041149866</v>
+        <v>3.09202241796394</v>
       </c>
       <c r="I30">
-        <v>4.886298105107615</v>
+        <v>3.964650443966444</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4108,28 +4108,28 @@
         <v>2004</v>
       </c>
       <c r="B31">
-        <v>9.590106003562965</v>
+        <v>7.521176276405519</v>
       </c>
       <c r="C31">
-        <v>5.522612206080391</v>
+        <v>4.454411967576629</v>
       </c>
       <c r="D31">
-        <v>5.896931366490623</v>
+        <v>4.744768237659208</v>
       </c>
       <c r="E31">
-        <v>4.876833156979921</v>
+        <v>3.949819683129952</v>
       </c>
       <c r="F31">
-        <v>4.677604767062701</v>
+        <v>3.793225406159907</v>
       </c>
       <c r="G31">
-        <v>4.328354200425972</v>
+        <v>3.517678100355001</v>
       </c>
       <c r="H31">
-        <v>3.985958543418921</v>
+        <v>3.246273780964879</v>
       </c>
       <c r="I31">
-        <v>5.546793847926969</v>
+        <v>4.4732169786023</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4137,28 +4137,28 @@
         <v>2005</v>
       </c>
       <c r="B32">
-        <v>8.8452873689884</v>
+        <v>6.961291225056411</v>
       </c>
       <c r="C32">
-        <v>5.359938583948813</v>
+        <v>4.323244022275215</v>
       </c>
       <c r="D32">
-        <v>5.731127328645472</v>
+        <v>4.611161530126511</v>
       </c>
       <c r="E32">
-        <v>4.957035786996666</v>
+        <v>4.008933783610048</v>
       </c>
       <c r="F32">
-        <v>5.214799573458707</v>
+        <v>4.210232732953284</v>
       </c>
       <c r="G32">
-        <v>4.580066580339433</v>
+        <v>3.713188548870036</v>
       </c>
       <c r="H32">
-        <v>4.811364275292081</v>
+        <v>3.894839131987637</v>
       </c>
       <c r="I32">
-        <v>5.433864045985993</v>
+        <v>4.380712400530301</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4166,28 +4166,28 @@
         <v>2006</v>
       </c>
       <c r="B33">
-        <v>8.249350350398036</v>
+        <v>6.507828997728963</v>
       </c>
       <c r="C33">
-        <v>5.636045741375585</v>
+        <v>4.531848802435764</v>
       </c>
       <c r="D33">
-        <v>5.712644503705265</v>
+        <v>4.590980989536805</v>
       </c>
       <c r="E33">
-        <v>4.877042493992994</v>
+        <v>3.942117927364298</v>
       </c>
       <c r="F33">
-        <v>7.256645125170748</v>
+        <v>5.767460590723651</v>
       </c>
       <c r="G33">
-        <v>4.720673949619904</v>
+        <v>3.819775642609147</v>
       </c>
       <c r="H33">
-        <v>5.889920291143993</v>
+        <v>4.727559954720705</v>
       </c>
       <c r="I33">
-        <v>5.399139503344813</v>
+        <v>4.348515504231091</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4195,28 +4195,28 @@
         <v>2007</v>
       </c>
       <c r="B34">
-        <v>8.577410269574829</v>
+        <v>6.716455558084226</v>
       </c>
       <c r="C34">
-        <v>5.846966286242314</v>
+        <v>4.680149554742188</v>
       </c>
       <c r="D34">
-        <v>6.362940197735258</v>
+        <v>5.072866905421262</v>
       </c>
       <c r="E34">
-        <v>5.341083245568509</v>
+        <v>4.291675889978039</v>
       </c>
       <c r="F34">
-        <v>7.582694011778185</v>
+        <v>5.986758006886626</v>
       </c>
       <c r="G34">
-        <v>5.208070930522468</v>
+        <v>4.188977740383907</v>
       </c>
       <c r="H34">
-        <v>6.165276669815474</v>
+        <v>4.922844315615489</v>
       </c>
       <c r="I34">
-        <v>5.472842199104067</v>
+        <v>4.393179058403655</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4224,28 +4224,28 @@
         <v>2008</v>
       </c>
       <c r="B35">
-        <v>7.822588314605794</v>
+        <v>6.115670871886891</v>
       </c>
       <c r="C35">
-        <v>6.127525735816858</v>
+        <v>4.865878799780779</v>
       </c>
       <c r="D35">
-        <v>6.845289846517075</v>
+        <v>5.400711702546633</v>
       </c>
       <c r="E35">
-        <v>6.17153348681164</v>
+        <v>4.898902781114577</v>
       </c>
       <c r="F35">
-        <v>6.458022399278446</v>
+        <v>5.113150324955557</v>
       </c>
       <c r="G35">
-        <v>5.043945566744479</v>
+        <v>4.043418023904468</v>
       </c>
       <c r="H35">
-        <v>6.289370541577441</v>
+        <v>4.987181035889908</v>
       </c>
       <c r="I35">
-        <v>5.757644988714716</v>
+        <v>4.587134850534595</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4253,28 +4253,28 @@
         <v>2009</v>
       </c>
       <c r="B36">
-        <v>7.237291797846815</v>
+        <v>5.814353527915918</v>
       </c>
       <c r="C36">
-        <v>6.086054249123206</v>
+        <v>4.920503955385875</v>
       </c>
       <c r="D36">
-        <v>6.139884067128595</v>
+        <v>4.962578250050198</v>
       </c>
       <c r="E36">
-        <v>5.42252761943255</v>
+        <v>4.399670812751832</v>
       </c>
       <c r="F36">
-        <v>6.231969365046862</v>
+        <v>5.034490766682775</v>
       </c>
       <c r="G36">
-        <v>4.690863131031853</v>
+        <v>3.82068712163614</v>
       </c>
       <c r="H36">
-        <v>6.025597088943969</v>
+        <v>4.873217339745013</v>
       </c>
       <c r="I36">
-        <v>5.286609429934965</v>
+        <v>4.29248241550838</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4282,28 +4282,28 @@
         <v>2010</v>
       </c>
       <c r="B37">
-        <v>8.561851602950863</v>
+        <v>6.762862861717695</v>
       </c>
       <c r="C37">
-        <v>7.127558207816364</v>
+        <v>5.686763871662455</v>
       </c>
       <c r="D37">
-        <v>6.657301054895766</v>
+        <v>5.328561381131676</v>
       </c>
       <c r="E37">
-        <v>6.078699902766278</v>
+        <v>4.884284477582579</v>
       </c>
       <c r="F37">
-        <v>6.379746644117724</v>
+        <v>5.115926297011917</v>
       </c>
       <c r="G37">
-        <v>5.101399943510569</v>
+        <v>4.125191019658417</v>
       </c>
       <c r="H37">
-        <v>7.098311578045269</v>
+        <v>5.664562521129958</v>
       </c>
       <c r="I37">
-        <v>5.966693569883092</v>
+        <v>4.797834815196672</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4311,28 +4311,28 @@
         <v>2011</v>
       </c>
       <c r="B38">
-        <v>7.8145781146919</v>
+        <v>6.179292474771014</v>
       </c>
       <c r="C38">
-        <v>7.024935080518872</v>
+        <v>5.588192000145725</v>
       </c>
       <c r="D38">
-        <v>5.751675331023976</v>
+        <v>4.618107496082785</v>
       </c>
       <c r="E38">
-        <v>5.548915360105428</v>
+        <v>4.461746952053656</v>
       </c>
       <c r="F38">
-        <v>5.820320161445975</v>
+        <v>4.670928462840508</v>
       </c>
       <c r="G38">
-        <v>4.920542289571157</v>
+        <v>3.973977212080359</v>
       </c>
       <c r="H38">
-        <v>6.445000963689989</v>
+        <v>5.148899487227768</v>
       </c>
       <c r="I38">
-        <v>5.693177442247917</v>
+        <v>4.573048329885188</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4340,28 +4340,28 @@
         <v>2012</v>
       </c>
       <c r="B39">
-        <v>8.050217603907827</v>
+        <v>6.394377884727552</v>
       </c>
       <c r="C39">
-        <v>6.507014577961505</v>
+        <v>5.22141495485405</v>
       </c>
       <c r="D39">
-        <v>5.600316034127644</v>
+        <v>4.519764405158424</v>
       </c>
       <c r="E39">
-        <v>5.034870904561383</v>
+        <v>4.077676349608748</v>
       </c>
       <c r="F39">
-        <v>5.442029312774443</v>
+        <v>4.39635470202429</v>
       </c>
       <c r="G39">
-        <v>4.520196420466096</v>
+        <v>3.672337361746854</v>
       </c>
       <c r="H39">
-        <v>6.735047009573472</v>
+        <v>5.39644587021103</v>
       </c>
       <c r="I39">
-        <v>5.053755104554858</v>
+        <v>4.092495830160519</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4369,28 +4369,28 @@
         <v>2013</v>
       </c>
       <c r="B40">
-        <v>8.613493503659168</v>
+        <v>6.859966795684578</v>
       </c>
       <c r="C40">
-        <v>6.818222696495618</v>
+        <v>5.486824698840999</v>
       </c>
       <c r="D40">
-        <v>5.587253279871179</v>
+        <v>4.52699443390434</v>
       </c>
       <c r="E40">
-        <v>5.012623311767209</v>
+        <v>4.074028291305105</v>
       </c>
       <c r="F40">
-        <v>5.843654436431658</v>
+        <v>4.728111854033529</v>
       </c>
       <c r="G40">
-        <v>4.457470972510293</v>
+        <v>3.633525496023895</v>
       </c>
       <c r="H40">
-        <v>5.963891834070118</v>
+        <v>4.822210240670364</v>
       </c>
       <c r="I40">
-        <v>4.957893110984171</v>
+        <v>4.030726252440903</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4398,28 +4398,28 @@
         <v>2014</v>
       </c>
       <c r="B41">
-        <v>8.874464259428919</v>
+        <v>7.082691414884106</v>
       </c>
       <c r="C41">
-        <v>6.358362355115881</v>
+        <v>5.142527909592088</v>
       </c>
       <c r="D41">
-        <v>5.393643536773552</v>
+        <v>4.383575467955623</v>
       </c>
       <c r="E41">
-        <v>5.021814594098494</v>
+        <v>4.088910639669665</v>
       </c>
       <c r="F41">
-        <v>5.26423907167848</v>
+        <v>4.281159582737067</v>
       </c>
       <c r="G41">
-        <v>4.536290810078361</v>
+        <v>3.702383463855521</v>
       </c>
       <c r="H41">
-        <v>5.641262067614041</v>
+        <v>4.579149936089911</v>
       </c>
       <c r="I41">
-        <v>5.260269523394153</v>
+        <v>4.278015659125185</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4427,28 +4427,28 @@
         <v>2015</v>
       </c>
       <c r="B42">
-        <v>10.58274553466864</v>
+        <v>8.362045996867637</v>
       </c>
       <c r="C42">
-        <v>6.890340458367182</v>
+        <v>5.556031417046035</v>
       </c>
       <c r="D42">
-        <v>5.583357572950113</v>
+        <v>4.532503076475326</v>
       </c>
       <c r="E42">
-        <v>4.998796576944919</v>
+        <v>4.069871197772885</v>
       </c>
       <c r="F42">
-        <v>5.476080543611784</v>
+        <v>4.447823395833625</v>
       </c>
       <c r="G42">
-        <v>4.426169413354001</v>
+        <v>3.613852012400772</v>
       </c>
       <c r="H42">
-        <v>6.269101735615878</v>
+        <v>5.071417664045216</v>
       </c>
       <c r="I42">
-        <v>5.426163187279625</v>
+        <v>4.40838681243209</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4456,28 +4456,28 @@
         <v>2016</v>
       </c>
       <c r="B43">
-        <v>11.14682130527173</v>
+        <v>8.788567477959162</v>
       </c>
       <c r="C43">
-        <v>7.18470778573761</v>
+        <v>5.788135526900704</v>
       </c>
       <c r="D43">
-        <v>5.869649279579587</v>
+        <v>4.760395887510646</v>
       </c>
       <c r="E43">
-        <v>5.172062107726227</v>
+        <v>4.209138216289944</v>
       </c>
       <c r="F43">
-        <v>5.229627432737509</v>
+        <v>4.254784784686009</v>
       </c>
       <c r="G43">
-        <v>4.460829069953111</v>
+        <v>3.642876101663411</v>
       </c>
       <c r="H43">
-        <v>5.439602979892521</v>
+        <v>4.421047936903731</v>
       </c>
       <c r="I43">
-        <v>5.908325355625637</v>
+        <v>4.790837308062202</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4485,28 +4485,28 @@
         <v>2017</v>
       </c>
       <c r="B44">
-        <v>12.04022218078564</v>
+        <v>9.453304148604035</v>
       </c>
       <c r="C44">
-        <v>8.156737811733867</v>
+        <v>6.541829487695857</v>
       </c>
       <c r="D44">
-        <v>5.800414293478877</v>
+        <v>4.707778838630327</v>
       </c>
       <c r="E44">
-        <v>5.395942623181633</v>
+        <v>4.388145621315461</v>
       </c>
       <c r="F44">
-        <v>5.02957857091765</v>
+        <v>4.097447723811371</v>
       </c>
       <c r="G44">
-        <v>4.757764564127712</v>
+        <v>3.881055612473872</v>
       </c>
       <c r="H44">
-        <v>5.096484498894519</v>
+        <v>4.15061844597213</v>
       </c>
       <c r="I44">
-        <v>6.183814008697938</v>
+        <v>5.00948380968696</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4514,28 +4514,28 @@
         <v>2018</v>
       </c>
       <c r="B45">
-        <v>10.80511325112189</v>
+        <v>8.540864740788344</v>
       </c>
       <c r="C45">
-        <v>8.191485398782676</v>
+        <v>6.567309559913107</v>
       </c>
       <c r="D45">
-        <v>5.723079867014474</v>
+        <v>4.64621319240144</v>
       </c>
       <c r="E45">
-        <v>5.320930897078157</v>
+        <v>4.328238205019296</v>
       </c>
       <c r="F45">
-        <v>4.757348443670496</v>
+        <v>3.880345721948861</v>
       </c>
       <c r="G45">
-        <v>5.187256808502442</v>
+        <v>4.222242956554248</v>
       </c>
       <c r="H45">
-        <v>5.024829523178783</v>
+        <v>4.093247843088744</v>
       </c>
       <c r="I45">
-        <v>6.388021573744342</v>
+        <v>5.1689617412263</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4543,28 +4543,28 @@
         <v>2019</v>
       </c>
       <c r="B46">
-        <v>9.570392670886122</v>
+        <v>7.671000613224913</v>
       </c>
       <c r="C46">
-        <v>7.498897673097402</v>
+        <v>6.065865208672471</v>
       </c>
       <c r="D46">
-        <v>5.623092653210078</v>
+        <v>4.584707828327855</v>
       </c>
       <c r="E46">
-        <v>5.206204474442067</v>
+        <v>4.252091400339495</v>
       </c>
       <c r="F46">
-        <v>4.39306806818073</v>
+        <v>3.599829078590447</v>
       </c>
       <c r="G46">
-        <v>5.312554148365002</v>
+        <v>4.337059490389596</v>
       </c>
       <c r="H46">
-        <v>4.506555256201187</v>
+        <v>3.691138325221782</v>
       </c>
       <c r="I46">
-        <v>6.274316882804258</v>
+        <v>5.101816665250073</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4572,28 +4572,28 @@
         <v>2020</v>
       </c>
       <c r="B47">
-        <v>9.468457700336831</v>
+        <v>7.682687465969573</v>
       </c>
       <c r="C47">
-        <v>7.00036246198548</v>
+        <v>5.722016278120565</v>
       </c>
       <c r="D47">
-        <v>5.505530982441961</v>
+        <v>4.519597945455072</v>
       </c>
       <c r="E47">
-        <v>5.106339636623811</v>
+        <v>4.196645814752899</v>
       </c>
       <c r="F47">
-        <v>3.990238347348821</v>
+        <v>3.289649815679721</v>
       </c>
       <c r="G47">
-        <v>5.555926279633679</v>
+        <v>4.560313669351898</v>
       </c>
       <c r="H47">
-        <v>4.477810436989122</v>
+        <v>3.686602787554857</v>
       </c>
       <c r="I47">
-        <v>6.096709372233718</v>
+        <v>4.996447502809739</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4601,28 +4601,28 @@
         <v>2021</v>
       </c>
       <c r="B48">
-        <v>11.49676037584818</v>
+        <v>9.315056775380091</v>
       </c>
       <c r="C48">
-        <v>8.714967474692266</v>
+        <v>7.112387803352751</v>
       </c>
       <c r="D48">
-        <v>6.596264238064254</v>
+        <v>5.411977683087442</v>
       </c>
       <c r="E48">
-        <v>5.660224355190802</v>
+        <v>4.654670832332149</v>
       </c>
       <c r="F48">
-        <v>4.502695627316587</v>
+        <v>3.71315052393178</v>
       </c>
       <c r="G48">
-        <v>7.035969368041436</v>
+        <v>5.766451670459626</v>
       </c>
       <c r="H48">
-        <v>4.782656264451123</v>
+        <v>3.941370384356544</v>
       </c>
       <c r="I48">
-        <v>7.312585867806972</v>
+        <v>5.9890292028252</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4630,28 +4630,28 @@
         <v>2022</v>
       </c>
       <c r="B49">
-        <v>14.92982528172115</v>
+        <v>11.87665929529262</v>
       </c>
       <c r="C49">
-        <v>9.687693019976265</v>
+        <v>7.843878148619612</v>
       </c>
       <c r="D49">
-        <v>7.658899052726764</v>
+        <v>6.241224613890592</v>
       </c>
       <c r="E49">
-        <v>7.745566684281068</v>
+        <v>6.310144573348675</v>
       </c>
       <c r="F49">
-        <v>5.178927911401244</v>
+        <v>4.252345436245344</v>
       </c>
       <c r="G49">
-        <v>7.497401676574273</v>
+        <v>6.112691298764417</v>
       </c>
       <c r="H49">
-        <v>5.246151091495975</v>
+        <v>4.306676542677758</v>
       </c>
       <c r="I49">
-        <v>8.836356014821098</v>
+        <v>7.174099589625349</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4659,28 +4659,28 @@
         <v>2023</v>
       </c>
       <c r="B50">
-        <v>15.89761178280606</v>
+        <v>12.18989500070959</v>
       </c>
       <c r="C50">
-        <v>9.634995147547729</v>
+        <v>7.664630704557597</v>
       </c>
       <c r="D50">
-        <v>7.842529313357978</v>
+        <v>6.298516387138615</v>
       </c>
       <c r="E50">
-        <v>8.206385736470089</v>
+        <v>6.578216717347911</v>
       </c>
       <c r="F50">
-        <v>5.846693899701502</v>
+        <v>4.74339048079532</v>
       </c>
       <c r="G50">
-        <v>6.619123418145227</v>
+        <v>5.349388130012745</v>
       </c>
       <c r="H50">
-        <v>5.488507471370053</v>
+        <v>4.460650331551141</v>
       </c>
       <c r="I50">
-        <v>8.778451172247305</v>
+        <v>7.015527036760988</v>
       </c>
     </row>
   </sheetData>
